--- a/biology/Médecine/Institut_Max-Planck_de_médecine_expérimentale/Institut_Max-Planck_de_médecine_expérimentale.xlsx
+++ b/biology/Médecine/Institut_Max-Planck_de_médecine_expérimentale/Institut_Max-Planck_de_médecine_expérimentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_de_m%C3%A9decine_exp%C3%A9rimentale</t>
+          <t>Institut_Max-Planck_de_médecine_expérimentale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut Max Planck de médecine expérimentale (allemand : Max-Planck-Institut für Experimentelle Medizin) est situé à Göttingen, en Allemagne. Fondé en 1947 sous le nom de  Medizinische Forschungsanstalt der Kaiser-Wilhelm-Gesellschaft, il reçoit son nom actuel en 1965.  
 Il est l'un des quatre-vingt instituts de la Société Max Planck (Max-Planck-Gesellschaft).    
-Klaus-Armin Nave est actuellement le directeur par intérim de l'institut[1]. 
+Klaus-Armin Nave est actuellement le directeur par intérim de l'institut. 
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_de_m%C3%A9decine_exp%C3%A9rimentale</t>
+          <t>Institut_Max-Planck_de_médecine_expérimentale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,42 +526,12 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recherche se concentre sur les neurosciences. Les activités de recherche couvrent un large éventail de sujets, allant des analyses moléculaires de base des processus neuronaux aux études cliniques sur de nouvelles thérapies des troubles neurologiques et psychiatriques chez les patients. L'objectif principal de toutes ces études est de comprendre les processus moléculaires et cellulaires de base dans la fonction cérébrale, d'analyser leur dysfonctionnement pathologique dans les maladies psychiatriques et neurologiques et, finalement, de développer de nouvelles thérapies pour ces troubles[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche se concentre sur les neurosciences. Les activités de recherche couvrent un large éventail de sujets, allant des analyses moléculaires de base des processus neuronaux aux études cliniques sur de nouvelles thérapies des troubles neurologiques et psychiatriques chez les patients. L'objectif principal de toutes ces études est de comprendre les processus moléculaires et cellulaires de base dans la fonction cérébrale, d'analyser leur dysfonctionnement pathologique dans les maladies psychiatriques et neurologiques et, finalement, de développer de nouvelles thérapies pour ces troubles. 
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Institut_Max-Planck_de_m%C3%A9decine_exp%C3%A9rimentale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Max-Planck_de_m%C3%A9decine_exp%C3%A9rimentale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Départements</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Neurogénétique
-Neurobiologie moléculaire
-Biologie moléculaire des signaux neuronaux</t>
         </is>
       </c>
     </row>
